--- a/Geospatial Water Price Inputs/PNNL Water Survey/PNNL_water_rates.xlsx
+++ b/Geospatial Water Price Inputs/PNNL Water Survey/PNNL_water_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradenlimb/CloudStation/Sustainability Science:Consulting/2024-10 RuFaS/SS-RuFaS Github/Geospatial Water Price Inputs/PNNL Water Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F78F9-B5AE-A042-AD16-730D937154F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40202D47-A58E-0E4B-B411-8A522708A3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{F0D177E0-2D2E-4945-B4E8-5E27522C017F}"/>
   </bookViews>
@@ -839,9 +839,6 @@
     <t>Seattle Public Utilities</t>
   </si>
   <si>
-    <t>Water Regions</t>
-  </si>
-  <si>
     <t>Mideast-East Central North</t>
   </si>
   <si>
@@ -861,6 +858,9 @@
   </si>
   <si>
     <t>West-Pacific</t>
+  </si>
+  <si>
+    <t>Water Region</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D51A3A-2353-EA48-A333-C093388797B5}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
         <v>0.109</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>0.115</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>0.01</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1821,7 +1821,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>-0.02</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1995,7 +1995,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2053,7 +2053,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2082,7 +2082,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2111,7 +2111,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2140,7 +2140,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="I37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2343,7 +2343,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2401,7 +2401,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2488,7 +2488,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>0.02</v>
       </c>
       <c r="I44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2604,7 +2604,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2662,7 +2662,7 @@
         <v>-2E-3</v>
       </c>
       <c r="I49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2691,7 +2691,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2720,7 +2720,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2749,7 +2749,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2778,7 +2778,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2807,7 +2807,7 @@
         <v>1E-3</v>
       </c>
       <c r="I54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="I55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2894,7 +2894,7 @@
         <v>0.01</v>
       </c>
       <c r="I57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="I58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2952,7 +2952,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3039,7 +3039,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="I63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="I65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="I66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3184,7 +3184,7 @@
         <v>0.01</v>
       </c>
       <c r="I67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3242,7 +3242,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3271,7 +3271,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="I71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3329,7 +3329,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3387,7 +3387,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="I74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3416,7 +3416,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="I75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3474,7 +3474,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3503,7 +3503,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3561,7 +3561,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3590,7 +3590,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3648,7 +3648,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="I83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3677,7 +3677,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="I84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3706,7 +3706,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="I87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3793,7 +3793,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="I88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
         <v>0.01</v>
       </c>
       <c r="I89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3851,7 +3851,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3909,7 +3909,7 @@
         <v>2E-3</v>
       </c>
       <c r="I92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3938,7 +3938,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3996,7 +3996,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4025,7 +4025,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="I97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4083,7 +4083,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="I98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4112,7 +4112,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4141,7 +4141,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I100" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4170,7 +4170,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="I102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="I104" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4286,7 +4286,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="I105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4315,7 +4315,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I106" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4344,7 +4344,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4373,7 +4373,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4402,7 +4402,7 @@
         <v>0.03</v>
       </c>
       <c r="I109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>0.01</v>
       </c>
       <c r="I110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4460,7 +4460,7 @@
         <v>0.06</v>
       </c>
       <c r="I111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4489,7 +4489,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I113" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
